--- a/biology/Zoologie/Bouvier_des_Flandres/Bouvier_des_Flandres.xlsx
+++ b/biology/Zoologie/Bouvier_des_Flandres/Bouvier_des_Flandres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bouvier des Flandres est une race de chien qui appartient à la grande famille des bouviers, chiens belges destinés à la garde des troupeaux de gros bétail. 
@@ -514,7 +526,9 @@
           <t>Critères de la race</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Taille
 de 62 à 68 cm pour le mâle
@@ -553,7 +567,9 @@
           <t>Caractère et entretien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un chien très fidèle, très attaché tant à son maître qu'au reste de la famille. Il aime que l'on s'occupe beaucoup de lui. Il est résistant, toujours en alerte et courageux, d'un comportement égal. Intelligent, il aime travailler et fait preuve de sensibilité. C'est généralement un animal sociable qui, pourvu qu'il ait été habitué tout jeune à la présence des chats, s'entendra bien avec eux et ses semblables. Avec les enfants, il forme généralement une bonne association. Il regarde les inconnus avec suspicion et se montre très protecteur pour sa famille, sa loyauté est réputée.
 Il lui faut une éducation bien équilibrée et qui reste cohérente dans ses principes. Moins vif que le berger allemand, le bouvier des Flandres apprend néanmoins les ordres nouveaux relativement vite, et une fois la chose acquise, il s'en souviendra pour longtemps.
@@ -587,7 +603,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
